--- a/xlsx/新泽西州_intext.xlsx
+++ b/xlsx/新泽西州_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="726">
   <si>
     <t>新泽西州</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_新泽西州</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_新泽西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E%E5%B7%9E%E6%97%97</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E8%AA%9E</t>
   </si>
   <si>
-    <t>朝鮮語</t>
+    <t>朝鲜语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8F%AF%E5%85%8B_(%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紐華克 (新澤西州)</t>
+    <t>纽华克 (新泽西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_New_Jersey</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E6%9B%BC%E5%8D%97%E5%BE%B7%E8%8C%B2</t>
   </si>
   <si>
-    <t>羅伯特·曼南德茲</t>
+    <t>罗伯特·曼南德兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -233,25 +233,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份人口密度列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%90%89%E5%88%A9%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>英吉利海峽</t>
+    <t>英吉利海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF%E5%B3%B6</t>
   </si>
   <si>
-    <t>澤西島</t>
+    <t>泽西岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -263,19 +260,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E9%83%A8</t>
   </si>
   <si>
-    <t>美國東部</t>
+    <t>美国东部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國東北部</t>
+    <t>美国东北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
+    <t>纽约州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
@@ -293,25 +290,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>賓夕法尼亞州</t>
+    <t>宾夕法尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9C%83%E5%8D%80</t>
   </si>
   <si>
-    <t>都會區</t>
+    <t>都会区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%83%BD%E6%9C%83%E5%8D%80</t>
   </si>
   <si>
-    <t>紐約都會區</t>
+    <t>纽约都会区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
   </si>
   <si>
-    <t>費城</t>
+    <t>费城</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/High_Point_(New_Jersey)</t>
@@ -335,13 +332,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/George_Carteret</t>
@@ -359,61 +356,61 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>美國革命</t>
+    <t>美国革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%89%B9%E6%A3%AE_(%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>帕特森 (新澤西州)</t>
+    <t>帕特森 (新泽西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>工業革命</t>
+    <t>工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%95%AD%E6%A2%9D</t>
   </si>
   <si>
-    <t>大蕭條</t>
+    <t>大萧条</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93-%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%9F%8E%E5%B8%82%E5%B8%B6</t>
   </si>
   <si>
-    <t>波士頓-華盛頓城市帶</t>
+    <t>波士顿-华盛顿城市带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%9A%84%E6%91%A9</t>
   </si>
   <si>
-    <t>巴爾的摩</t>
+    <t>巴尔的摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>哥倫比亞特區</t>
+    <t>哥伦比亚特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%8A%E5%8D%80</t>
   </si>
   <si>
-    <t>郊區</t>
+    <t>郊区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_New_Jersey</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF%E5%B8%82</t>
   </si>
   <si>
-    <t>澤西市</t>
+    <t>泽西市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B0%BC%E5%BE%B7%E5%85%B0</t>
@@ -449,9 +446,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B8%82</t>
   </si>
   <si>
-    <t>纽约市</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%91%9E%E5%85%B8</t>
   </si>
   <si>
@@ -473,55 +467,55 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%B8%AF</t>
   </si>
   <si>
-    <t>紐約港</t>
+    <t>纽约港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>英國內戰</t>
+    <t>英国内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B3%BD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>海峽群島</t>
+    <t>海峡群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%90%86%E4%B8%80%E4%B8%96_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>查理一世 (英國)</t>
+    <t>查理一世 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%90%86%E4%BA%8C%E4%B8%96_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>查理二世 (英國)</t>
+    <t>查理二世 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬里蘭州</t>
+    <t>马里兰州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E4%BA%8C%E4%B8%96_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>詹姆斯二世 (英國)</t>
+    <t>詹姆斯二世 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%B7%E9%81%9C%E6%B2%B3</t>
   </si>
   <si>
-    <t>哈德遜河</t>
+    <t>哈德逊河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%8B%89%E7%93%A6%E6%B2%B3</t>
@@ -533,25 +527,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%A0%BC%E6%9C%83</t>
   </si>
   <si>
-    <t>貴格會</t>
+    <t>贵格会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>東澤西</t>
+    <t>东泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>西澤西</t>
+    <t>西泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%8E%8B%E5%AE%A4</t>
   </si>
   <si>
-    <t>英國王室</t>
+    <t>英国王室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%A4%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -575,25 +569,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BF%A0%E7%99%BB%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>翠登戰役</t>
+    <t>翠登战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E8%8F%AF%E7%9B%9B%E9%A0%93</t>
   </si>
   <si>
-    <t>喬治·華盛頓</t>
+    <t>乔治·华盛顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>大陸會議</t>
+    <t>大陆会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%9E%97%E6%96%AF%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>普林斯頓大學</t>
+    <t>普林斯顿大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Nassau_Hall</t>
@@ -617,13 +611,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>美國憲法</t>
+    <t>美国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AC%8A%E5%88%A9%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國權利法案</t>
+    <t>美国权利法案</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/New_Jersey_in_the_19th_century</t>
@@ -635,13 +629,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>奴隸制度</t>
+    <t>奴隶制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>美國內戰</t>
+    <t>美国内战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Constitution_of_New_Jersey</t>
@@ -653,25 +647,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E7%91%9F%E7%B8%A3_(%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>默瑟縣 (新澤西州)</t>
+    <t>默瑟县 (新泽西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>美國最高法院</t>
+    <t>美国最高法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A1%E7%B9%94%E6%A5%AD</t>
   </si>
   <si>
-    <t>紡織業</t>
+    <t>纺织业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E6%84%9B%E8%BF%AA%E7%94%9F</t>
   </si>
   <si>
-    <t>湯瑪斯·愛迪生</t>
+    <t>汤玛斯·爱迪生</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/New_Jersey_in_the_20th_century</t>
@@ -683,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>二次世界大戰</t>
+    <t>二次世界大战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Camp_Kilmer</t>
@@ -707,19 +701,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9D%E5%88%A9%E5%A5%B3%E7%A5%9E%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>勝利女神飛彈</t>
+    <t>胜利女神飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BD%8A%E6%9F%8F%E6%9E%97%E9%A3%9B%E8%88%B9</t>
   </si>
   <si>
-    <t>齊柏林飛船</t>
+    <t>齐柏林飞船</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lakehurst,_New_Jersey</t>
@@ -731,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E9%A0%93_(%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>肯頓 (新澤西州)</t>
+    <t>肯顿 (新泽西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%8A%9B%E8%8D%B7%E8%87%AA%E6%B2%BB%E5%B8%82</t>
@@ -743,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E6%96%AF%C2%B7%E6%96%AF%E5%B8%83%E6%9E%97%E6%96%AF%E9%A0%93</t>
   </si>
   <si>
-    <t>布魯斯·斯布林斯頓</t>
+    <t>布鲁斯·斯布林斯顿</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Government_of_New_Jersey</t>
@@ -785,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E6%B3%B0%E7%99%BB%E5%B3%B6</t>
   </si>
   <si>
-    <t>史泰登島</t>
+    <t>史泰登岛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/North_Jersey</t>
@@ -809,9 +803,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%9F%8E</t>
   </si>
   <si>
-    <t>费城</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Delaware_Valley</t>
   </si>
   <si>
@@ -827,25 +818,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%B7%E9%81%9C%E9%83%A1</t>
   </si>
   <si>
-    <t>哈德遜郡</t>
+    <t>哈德逊郡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A1%9E%E5%85%8B%E6%96%AF%E9%83%A1_(%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>艾塞克斯郡 (新澤西州)</t>
+    <t>艾塞克斯郡 (新泽西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E7%B8%A3_(%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聯合縣 (新澤西州)</t>
+    <t>联合县 (新泽西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%BE%B7%E8%96%A9%E5%85%8B%E6%96%AF%E9%83%A1_(%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>密德薩克斯郡 (新澤西州)</t>
+    <t>密德萨克斯郡 (新泽西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%A0%B9%E9%83%A1</t>
@@ -857,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%B3%BD%E5%85%8B%E7%B8%A3</t>
   </si>
   <si>
-    <t>巴賽克縣</t>
+    <t>巴赛克县</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Skylands_Region</t>
@@ -869,25 +860,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%A1%9E%E5%85%8B%E6%96%AF%E7%B8%A3_(%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蘇塞克斯縣 (新澤西州)</t>
+    <t>苏塞克斯县 (新泽西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E9%87%8C%E6%96%AF%E7%B8%A3_(%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>摩里斯縣 (新澤西州)</t>
+    <t>摩里斯县 (新泽西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%80%AB%E7%B8%A3_(%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沃倫縣 (新澤西州)</t>
+    <t>沃伦县 (新泽西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E7%89%B9%E6%95%A6%E7%B8%A3</t>
   </si>
   <si>
-    <t>亨特敦縣</t>
+    <t>亨特敦县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E9%BB%98%E5%A1%9E%E7%89%B9%E5%8E%BF_(%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E)</t>
@@ -905,13 +896,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E8%8C%85%E6%96%AF%E7%B8%A3</t>
   </si>
   <si>
-    <t>蒙茅斯縣</t>
+    <t>蒙茅斯县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E7%B8%A3</t>
   </si>
   <si>
-    <t>海洋縣</t>
+    <t>海洋县</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Delaware_River_Region</t>
@@ -923,31 +914,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E9%9D%88%E9%A0%93%E9%83%A1_(%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伯靈頓郡 (新澤西州)</t>
+    <t>伯灵顿郡 (新泽西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%99%BB%E7%B8%A3_(%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康登縣 (新澤西州)</t>
+    <t>康登县 (新泽西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%B4%9B%E6%96%AF%E7%89%B9%E7%B8%A3_(%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格洛斯特縣 (新澤西州)</t>
+    <t>格洛斯特县 (新泽西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%8B%92%E5%A7%86%E7%B8%A3</t>
   </si>
   <si>
-    <t>塞勒姆縣</t>
+    <t>塞勒姆县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B%E7%B8%A3</t>
   </si>
   <si>
-    <t>大西洋縣</t>
+    <t>大西洋县</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Southern_Shore_Region</t>
@@ -959,13 +950,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E4%BC%AF%E8%98%AD%E7%B8%A3_(%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>坎伯蘭縣 (新澤西州)</t>
+    <t>坎伯兰县 (新泽西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%99%AE%E6%A2%85%E7%B8%A3_(%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>開普梅縣 (新澤西州)</t>
+    <t>开普梅县 (新泽西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%94%E5%93%A5%E9%95%87_(%E6%96%B0%E6%B3%BD%E8%A5%BF)</t>
@@ -1025,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B2%A9%E6%BC%BF</t>
   </si>
   <si>
-    <t>岩漿</t>
+    <t>岩浆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Palisades_(Hudson_River)</t>
@@ -1085,7 +1076,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%8D%80</t>
   </si>
   <si>
-    <t>行政區</t>
+    <t>行政区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82</t>
@@ -1097,13 +1088,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8E%AE</t>
   </si>
   <si>
-    <t>鎮</t>
+    <t>镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%89</t>
   </si>
   <si>
-    <t>鄉</t>
+    <t>乡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%91</t>
@@ -1139,19 +1130,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8F%AF%E5%85%8B%E8%87%AA%E7%94%B1%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>紐華克自由國際機場</t>
+    <t>纽华克自由国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>聯合航空</t>
+    <t>联合航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%BF%AB%E9%81%9E</t>
   </si>
   <si>
-    <t>聯邦快遞</t>
+    <t>联邦快递</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/State_highways_in_New_Jersey</t>
@@ -1163,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>州際高速公路</t>
+    <t>州际高速公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF</t>
@@ -1175,7 +1166,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF%E6%94%B6%E8%B2%BB%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>新澤西收費高速公路</t>
+    <t>新泽西收费高速公路</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Garden_State_Parkway</t>
@@ -1187,13 +1178,13 @@
     <t>https://zh.wikipedia.org/wiki/95%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>95號州際公路</t>
+    <t>95号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>新澤西</t>
+    <t>新泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%A5%E6%A2%81</t>
@@ -1211,7 +1202,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E6%94%B6%E8%B2%BB%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>電子收費系統</t>
+    <t>电子收费系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/E-ZPass</t>
@@ -1241,7 +1232,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8C%97%E8%B5%B0%E5%BB%8A</t>
   </si>
   <si>
-    <t>東北走廊</t>
+    <t>东北走廊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BF%AA%E7%94%9F_(%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E)</t>
@@ -1259,31 +1250,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%88%A9%E5%A4%AB%E9%A0%93_(%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克利夫頓 (新澤西州)</t>
+    <t>克利夫顿 (新泽西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%B3%BD%E5%85%8B</t>
   </si>
   <si>
-    <t>巴賽克</t>
+    <t>巴赛克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8B%E8%81%AF%E5%B8%82</t>
   </si>
   <si>
-    <t>友聯市</t>
+    <t>友联市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E6%B0%B8_(%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>貝永 (新澤西州)</t>
+    <t>贝永 (新泽西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B8%83%E6%9C%97%E6%96%AF%E7%B6%AD%E5%85%8B_(%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>新布朗斯維克 (新澤西州)</t>
+    <t>新布朗斯维克 (新泽西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9F%8E</t>
@@ -1295,7 +1286,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E9%87%8C%E6%96%AF%E6%95%A6_(%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫里斯敦 (新澤西州)</t>
+    <t>莫里斯敦 (新泽西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%9E%97%E6%96%AF%E9%A1%BF</t>
@@ -1307,13 +1298,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%96%87%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>羅文大學</t>
+    <t>罗文大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%A0%BC%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -1325,13 +1316,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>新澤西理工學院</t>
+    <t>新泽西理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E6%81%A9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>肯恩大學</t>
+    <t>肯恩大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%8B%E8%8E%B1%E5%B0%94%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -1343,27 +1334,24 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>新澤西學院</t>
+    <t>新泽西学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%E5%B8%95%E7%89%B9%E6%A3%AE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>威廉帕特森大學</t>
+    <t>威廉帕特森大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%88%BE%E9%87%8C%C2%B7%E7%8B%84%E9%87%91%E7%94%9F%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>費爾里·狄金生大學</t>
+    <t>费尔里·狄金生大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%9E%97%E6%96%AF%E9%A1%BF%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>普林斯顿大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%9B%E9%A1%BF%E8%B4%BA%E5%B0%94%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
@@ -1373,13 +1361,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E6%96%87%E6%96%AF%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>史蒂文斯理工學院</t>
+    <t>史蒂文斯理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BD%BC%E5%BE%97%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖彼得大學</t>
+    <t>圣彼得大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NFL</t>
@@ -1391,7 +1379,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>紐約巨人</t>
+    <t>纽约巨人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%96%B7%E6%B1%BD%E6%9C%BA</t>
@@ -1409,25 +1397,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%B4%8B%E5%9F%BA</t>
   </si>
   <si>
-    <t>紐約洋基</t>
+    <t>纽约洋基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E%E8%B2%BB%E5%9F%8E%E4%BA%BA</t>
   </si>
   <si>
-    <t>費城費城人</t>
+    <t>费城费城人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E7%B4%85%E9%9B%80</t>
   </si>
   <si>
-    <t>聖路易紅雀</t>
+    <t>圣路易红雀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E7%AB%8B%E8%81%94%E7%9B%9F</t>
@@ -1445,13 +1433,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E6%BE%A4%E8%A5%BF%E7%B1%83%E7%B6%B2</t>
   </si>
   <si>
-    <t>紐澤西籃網</t>
+    <t>纽泽西篮网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E5%85%8B%E6%9E%97</t>
   </si>
   <si>
-    <t>布魯克林</t>
+    <t>布鲁克林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NHL</t>
@@ -1463,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF%E9%AD%94%E9%AC%BC</t>
   </si>
   <si>
-    <t>新澤西魔鬼</t>
+    <t>新泽西魔鬼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC</t>
@@ -1475,13 +1463,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E7%B4%AB%E7%BE%85%E8%98%AD</t>
   </si>
   <si>
-    <t>非洲紫羅蘭</t>
+    <t>非洲紫罗兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E5%A6%AE%C2%B7%E4%BC%91%E6%96%AF%E9%A0%93</t>
   </si>
   <si>
-    <t>惠妮·休斯頓</t>
+    <t>惠妮·休斯顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E5%BE%B7%E7%BD%97%C2%B7%E5%A8%81%E5%B0%94%E9%80%8A</t>
@@ -1523,7 +1511,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%96%AF%E6%B1%80%C2%B7%E9%84%A7%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>克斯汀·鄧斯特</t>
+    <t>克斯汀·邓斯特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BB%80%E4%B8%BD%C2%B7%E6%8F%90%E6%96%AF%E4%BB%A3%E5%B0%94</t>
@@ -1577,37 +1565,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF%E6%83%A1%E9%AD%94</t>
   </si>
   <si>
-    <t>澤西惡魔</t>
+    <t>泽西恶魔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8_(%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B)</t>
   </si>
   <si>
-    <t>國家圖書館 (中華民國)</t>
+    <t>国家图书馆 (中华民国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E5%9C%96%E6%9B%B8%E5%88%86%E9%A1%9E%E6%B3%95</t>
   </si>
   <si>
-    <t>中文圖書分類法</t>
+    <t>中文图书分类法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E9%83%A8%E9%A0%98%E4%BA%8B%E4%BA%8B%E5%8B%99%E5%B1%80</t>
   </si>
   <si>
-    <t>外交部領事事務局</t>
+    <t>外交部领事事务局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E5%8C%97%E7%B6%93%E6%BF%9F%E6%96%87%E5%8C%96%E4%BB%A3%E8%A1%A8%E8%99%95</t>
   </si>
   <si>
-    <t>臺北經濟文化代表處</t>
+    <t>台北经济文化代表处</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%A8%E5%8F%B0%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>美國在台協會</t>
+    <t>美国在台协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:New_Jersey</t>
@@ -1631,7 +1619,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E%E4%BA%BA%E5%8F%A3</t>
   </si>
   <si>
-    <t>新澤西州人口</t>
+    <t>新泽西州人口</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gambling_in_New_Jersey</t>
@@ -1667,7 +1655,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF%E6%B5%B7%E5%B2%B8</t>
   </si>
   <si>
-    <t>澤西海岸</t>
+    <t>泽西海岸</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/North_Hudson</t>
@@ -1685,7 +1673,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E8%92%99%E7%89%B9_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>皮埃蒙特 (美國)</t>
+    <t>皮埃蒙特 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Raritan_Bayshore</t>
@@ -1709,25 +1697,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%A0%B9%E7%B8%A3</t>
   </si>
   <si>
-    <t>博根縣</t>
+    <t>博根县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%B7%E9%81%9C%E7%B8%A3</t>
   </si>
   <si>
-    <t>哈德遜縣</t>
+    <t>哈德逊县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E7%91%9F%E5%8E%BF_(%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>默瑟县 (新泽西州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E9%BA%97%E8%8E%8E%E7%99%BD_(%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伊麗莎白 (新澤西州)</t>
+    <t>伊丽莎白 (新泽西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%82%AF%E8%90%A8%E5%85%8B_(%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E)</t>
@@ -1745,9 +1730,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%BD%E8%A5%BF%E5%B8%82</t>
   </si>
   <si>
-    <t>泽西市</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B8%83%E6%9C%97%E6%96%AF%E7%BB%B4%E5%85%8B</t>
   </si>
   <si>
@@ -1775,7 +1757,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
@@ -1793,7 +1775,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -1811,7 +1793,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -1835,7 +1817,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -1871,7 +1853,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -1895,9 +1877,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
   </si>
   <si>
-    <t>马里兰州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
   </si>
   <si>
@@ -1907,7 +1886,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -1919,7 +1898,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -1931,7 +1910,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -1955,9 +1934,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
   </si>
   <si>
-    <t>纽约州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
   </si>
   <si>
@@ -1973,7 +1949,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -1985,13 +1961,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>宾夕法尼亚州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -2045,7 +2018,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -2063,7 +2036,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -2075,19 +2048,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -2105,7 +2078,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -2117,7 +2090,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -2129,7 +2102,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -2141,25 +2114,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -2189,7 +2162,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2207,7 +2180,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3605,7 +3578,7 @@
         <v>71</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3631,10 +3604,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>149</v>
@@ -3660,10 +3633,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3689,10 +3662,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
@@ -3718,10 +3691,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3747,10 +3720,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3776,10 +3749,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3805,10 +3778,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>6</v>
@@ -3834,10 +3807,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>13</v>
@@ -3863,10 +3836,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -3892,10 +3865,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -3921,10 +3894,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>11</v>
@@ -3950,10 +3923,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>5</v>
@@ -3979,10 +3952,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>8</v>
@@ -4008,10 +3981,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -4037,10 +4010,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4066,10 +4039,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>5</v>
@@ -4095,10 +4068,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>10</v>
@@ -4124,10 +4097,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>8</v>
@@ -4153,10 +4126,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -4182,10 +4155,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -4211,10 +4184,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -4240,10 +4213,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -4269,10 +4242,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -4298,10 +4271,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>7</v>
@@ -4327,10 +4300,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -4356,10 +4329,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -4385,10 +4358,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>4</v>
@@ -4414,10 +4387,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -4443,10 +4416,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -4472,10 +4445,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -4501,10 +4474,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4530,10 +4503,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4559,10 +4532,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>5</v>
@@ -4588,10 +4561,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>5</v>
@@ -4617,10 +4590,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4646,10 +4619,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -4675,10 +4648,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4704,10 +4677,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4733,10 +4706,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4762,10 +4735,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -4791,10 +4764,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4820,10 +4793,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4849,10 +4822,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4878,10 +4851,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -4907,10 +4880,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -4936,10 +4909,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4965,10 +4938,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4994,10 +4967,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -5023,10 +4996,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>8</v>
@@ -5052,10 +5025,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5081,10 +5054,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5110,10 +5083,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5139,10 +5112,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5168,10 +5141,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5197,10 +5170,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5226,10 +5199,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>112</v>
+      </c>
+      <c r="F92" t="s">
         <v>113</v>
-      </c>
-      <c r="F92" t="s">
-        <v>114</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -5255,10 +5228,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5284,10 +5257,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -5313,10 +5286,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5342,10 +5315,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5371,10 +5344,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5400,10 +5373,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5429,10 +5402,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -5458,10 +5431,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -5487,10 +5460,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5516,10 +5489,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5545,10 +5518,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5574,10 +5547,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>4</v>
@@ -5603,10 +5576,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5632,10 +5605,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5661,10 +5634,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5690,10 +5663,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5719,10 +5692,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5748,10 +5721,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5777,10 +5750,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5806,10 +5779,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -5835,10 +5808,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -5864,10 +5837,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5893,10 +5866,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5922,10 +5895,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5951,10 +5924,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5980,10 +5953,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>120</v>
+      </c>
+      <c r="F118" t="s">
         <v>121</v>
-      </c>
-      <c r="F118" t="s">
-        <v>122</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6009,10 +5982,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6038,10 +6011,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6067,10 +6040,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -6096,10 +6069,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6125,10 +6098,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6154,10 +6127,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6183,10 +6156,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -6212,10 +6185,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6241,10 +6214,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -6270,10 +6243,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6328,10 +6301,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6357,10 +6330,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6386,10 +6359,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6415,10 +6388,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -6444,10 +6417,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -6473,10 +6446,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>97</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6502,10 +6475,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6531,10 +6504,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6560,10 +6533,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6589,10 +6562,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6618,10 +6591,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6647,10 +6620,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6676,10 +6649,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6705,10 +6678,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6734,10 +6707,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -6763,10 +6736,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6792,10 +6765,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6821,10 +6794,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6850,10 +6823,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6879,10 +6852,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6908,10 +6881,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -6937,10 +6910,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6966,10 +6939,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6995,10 +6968,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -7024,10 +6997,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F154" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7053,10 +7026,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7082,10 +7055,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7111,10 +7084,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7140,10 +7113,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7169,10 +7142,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7198,10 +7171,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7227,10 +7200,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -7256,10 +7229,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7285,10 +7258,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7314,10 +7287,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7343,10 +7316,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7372,10 +7345,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7401,10 +7374,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7430,10 +7403,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7459,10 +7432,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7488,10 +7461,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7517,10 +7490,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7546,10 +7519,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7575,10 +7548,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7604,10 +7577,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7633,10 +7606,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7662,10 +7635,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7691,10 +7664,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -7720,10 +7693,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7749,10 +7722,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7778,10 +7751,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7807,10 +7780,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G181" t="n">
         <v>26</v>
@@ -7836,10 +7809,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7865,10 +7838,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G183" t="n">
         <v>3</v>
@@ -7894,10 +7867,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G184" t="n">
         <v>10</v>
@@ -7923,10 +7896,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G185" t="n">
         <v>5</v>
@@ -7952,10 +7925,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7981,10 +7954,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8010,10 +7983,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8039,10 +8012,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8068,10 +8041,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8097,10 +8070,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8126,10 +8099,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8155,10 +8128,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8184,10 +8157,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8213,10 +8186,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8242,10 +8215,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8271,10 +8244,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G197" t="n">
         <v>12</v>
@@ -8300,10 +8273,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -8329,10 +8302,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -8358,10 +8331,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8387,10 +8360,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G201" t="n">
         <v>75</v>
@@ -8416,10 +8389,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -8445,10 +8418,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8474,10 +8447,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8503,10 +8476,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -8532,10 +8505,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8561,10 +8534,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8590,10 +8563,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8619,10 +8592,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8677,10 +8650,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>114</v>
+      </c>
+      <c r="F211" t="s">
         <v>115</v>
-      </c>
-      <c r="F211" t="s">
-        <v>116</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -8706,10 +8679,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F212" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8735,10 +8708,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F213" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G213" t="n">
         <v>3</v>
@@ -8764,10 +8737,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F214" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8793,10 +8766,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F215" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8822,10 +8795,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F216" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8851,10 +8824,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F217" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8880,10 +8853,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F218" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8909,10 +8882,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F219" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G219" t="n">
         <v>4</v>
@@ -8938,10 +8911,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F220" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8967,10 +8940,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F221" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -8996,10 +8969,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F222" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9025,10 +8998,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F223" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9054,10 +9027,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F224" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9083,10 +9056,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F225" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9112,10 +9085,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F226" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9141,10 +9114,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F227" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9170,10 +9143,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F228" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9199,10 +9172,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F229" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9228,10 +9201,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F230" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9257,10 +9230,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F231" t="s">
-        <v>448</v>
+        <v>190</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9286,10 +9259,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F232" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -9315,10 +9288,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F233" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9344,10 +9317,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F234" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9373,10 +9346,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F235" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9402,10 +9375,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F236" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9431,10 +9404,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F237" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9460,10 +9433,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F238" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -9489,10 +9462,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F239" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9518,10 +9491,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F240" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9547,10 +9520,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F241" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9576,10 +9549,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F242" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9605,10 +9578,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F243" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -9634,10 +9607,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F244" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9663,10 +9636,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F245" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9692,10 +9665,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F246" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9721,10 +9694,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F247" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9750,10 +9723,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F248" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9779,10 +9752,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F249" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G249" t="n">
         <v>6</v>
@@ -9808,10 +9781,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F250" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9837,10 +9810,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F251" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9866,10 +9839,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F252" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9895,10 +9868,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F253" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9924,10 +9897,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F254" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G254" t="n">
         <v>6</v>
@@ -9953,10 +9926,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F255" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G255" t="n">
         <v>3</v>
@@ -9982,10 +9955,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F256" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10011,10 +9984,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F257" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10040,10 +10013,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10069,10 +10042,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10098,10 +10071,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F260" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10127,10 +10100,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F261" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10156,10 +10129,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F262" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10185,10 +10158,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F263" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10214,10 +10187,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F264" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10243,10 +10216,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F265" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10272,10 +10245,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F266" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10301,10 +10274,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F267" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10330,10 +10303,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F268" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10359,10 +10332,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F269" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10388,10 +10361,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F270" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10417,10 +10390,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F271" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -10446,10 +10419,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F272" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10475,10 +10448,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F273" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10504,10 +10477,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F274" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10533,10 +10506,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F275" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G275" t="n">
         <v>4</v>
@@ -10591,10 +10564,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F277" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10620,10 +10593,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F278" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10649,10 +10622,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F279" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G279" t="n">
         <v>6</v>
@@ -10678,10 +10651,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F280" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10707,10 +10680,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F281" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10736,10 +10709,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F282" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10765,10 +10738,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F283" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10794,10 +10767,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F284" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10823,10 +10796,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F285" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10852,10 +10825,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F286" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -10881,10 +10854,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F287" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10910,10 +10883,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F288" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10939,10 +10912,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10968,10 +10941,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F290" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10997,10 +10970,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F291" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11026,10 +10999,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>94</v>
+      </c>
+      <c r="F292" t="s">
         <v>95</v>
-      </c>
-      <c r="F292" t="s">
-        <v>96</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11055,10 +11028,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F293" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11084,10 +11057,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F294" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -11113,10 +11086,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F295" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G295" t="n">
         <v>2</v>
@@ -11142,10 +11115,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F296" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -11171,10 +11144,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F297" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11200,10 +11173,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F298" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G298" t="n">
         <v>2</v>
@@ -11229,10 +11202,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F299" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -11258,10 +11231,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F300" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -11287,10 +11260,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F301" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G301" t="n">
         <v>7</v>
@@ -11316,10 +11289,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F302" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11345,10 +11318,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F303" t="s">
-        <v>568</v>
+        <v>210</v>
       </c>
       <c r="G303" t="n">
         <v>4</v>
@@ -11374,10 +11347,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F304" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -11403,10 +11376,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F305" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -11432,10 +11405,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F306" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -11461,10 +11434,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F307" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G307" t="n">
         <v>3</v>
@@ -11490,10 +11463,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F308" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G308" t="n">
         <v>2</v>
@@ -11519,10 +11492,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F309" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -11548,10 +11521,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F310" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -11577,10 +11550,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F311" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G311" t="n">
         <v>3</v>
@@ -11606,10 +11579,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F312" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -11635,10 +11608,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F313" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -11664,10 +11637,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F314" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11693,10 +11666,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F315" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11722,10 +11695,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F316" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11751,10 +11724,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F317" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11780,10 +11753,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F318" t="s">
-        <v>576</v>
+        <v>137</v>
       </c>
       <c r="G318" t="n">
         <v>36</v>
@@ -11838,10 +11811,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F320" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11867,10 +11840,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F321" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11896,10 +11869,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="F322" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11925,10 +11898,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F323" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11954,10 +11927,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F324" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11983,10 +11956,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F325" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12012,10 +11985,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F326" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12041,10 +12014,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F327" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12070,10 +12043,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F328" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12099,10 +12072,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F329" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12128,10 +12101,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F330" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12157,10 +12130,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F331" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12186,10 +12159,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F332" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12215,10 +12188,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F333" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G333" t="n">
         <v>2</v>
@@ -12244,10 +12217,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F334" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12273,10 +12246,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F335" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12302,10 +12275,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F336" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12331,10 +12304,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F337" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12360,10 +12333,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F338" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12389,10 +12362,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F339" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12418,10 +12391,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F340" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12447,10 +12420,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F341" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12476,10 +12449,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F342" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12505,10 +12478,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F343" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12534,10 +12507,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F344" t="s">
-        <v>626</v>
+        <v>162</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12563,10 +12536,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F345" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12592,10 +12565,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F346" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12621,10 +12594,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F347" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12650,10 +12623,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F348" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12679,10 +12652,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F349" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12708,10 +12681,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F350" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12737,10 +12710,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="F351" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12766,10 +12739,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F352" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12795,10 +12768,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="F353" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12824,10 +12797,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="F354" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12853,10 +12826,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="F355" t="s">
-        <v>646</v>
+        <v>85</v>
       </c>
       <c r="G355" t="n">
         <v>5</v>
@@ -12882,10 +12855,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F356" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12911,10 +12884,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F357" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12940,10 +12913,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F358" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G358" t="n">
         <v>2</v>
@@ -12969,10 +12942,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F359" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12998,10 +12971,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F360" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13027,10 +13000,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F361" t="s">
-        <v>656</v>
+        <v>91</v>
       </c>
       <c r="G361" t="n">
         <v>6</v>
@@ -13056,10 +13029,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="F362" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13085,10 +13058,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="F363" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13114,10 +13087,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="F364" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13143,10 +13116,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="F365" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13172,10 +13145,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="F366" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13201,10 +13174,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="F367" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13230,10 +13203,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="F368" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13259,10 +13232,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="F369" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -13288,10 +13261,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="F370" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
@@ -13317,10 +13290,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="F371" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13346,10 +13319,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="F372" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13375,10 +13348,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="F373" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13404,10 +13377,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F374" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13433,10 +13406,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="F375" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13462,10 +13435,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="F376" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13491,10 +13464,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="F377" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13520,10 +13493,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="F378" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13549,10 +13522,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="F379" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13578,10 +13551,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="F380" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13607,10 +13580,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="F381" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13636,10 +13609,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="F382" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13665,10 +13638,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="F383" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13694,10 +13667,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="F384" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13723,10 +13696,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="F385" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13752,10 +13725,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="F386" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13781,10 +13754,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="F387" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -13810,10 +13783,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="F388" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -13839,10 +13812,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="F389" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -13868,10 +13841,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="F390" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -13897,10 +13870,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="F391" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -13926,10 +13899,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="F392" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -13955,10 +13928,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="F393" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -13984,10 +13957,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="F394" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14013,10 +13986,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="F395" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="G395" t="n">
         <v>3</v>
@@ -14042,10 +14015,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="F396" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14071,10 +14044,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F397" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14100,10 +14073,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="F398" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14129,10 +14102,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="F399" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14158,10 +14131,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="F400" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
